--- a/data/trans_dic/P70B_R_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P70B_R_2023-Habitat-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7829247381219223</v>
+        <v>0.7788840701420335</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8038283410894885</v>
+        <v>0.8026680926386536</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8031863246539236</v>
+        <v>0.8035116640757151</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8712117074087411</v>
+        <v>0.8713094831158948</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8857169765990722</v>
+        <v>0.8845623029373274</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8660472569271197</v>
+        <v>0.8644288226005943</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7945579946964627</v>
+        <v>0.8006338494180627</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8160004750155646</v>
+        <v>0.817779575042247</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8171982405609433</v>
+        <v>0.816763076169038</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8704823870703569</v>
+        <v>0.8688221145252395</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8766090873187009</v>
+        <v>0.8767844523050085</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8658298597699428</v>
+        <v>0.865967755577486</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.8742697487229878</v>
+        <v>0.8742697487229881</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.8542635411305892</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.83059371855699</v>
+        <v>0.8318615168691211</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8144363421275871</v>
+        <v>0.8150940720846935</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8351412016948295</v>
+        <v>0.8367564692239459</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9089847959434071</v>
+        <v>0.9086778916522318</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8842338998457278</v>
+        <v>0.8900426453567983</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8892057104807054</v>
+        <v>0.892056513886066</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.873503098631021</v>
+        <v>0.8735030986310209</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.864498759886359</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.834107436090578</v>
+        <v>0.8344871137437242</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8325906239905303</v>
+        <v>0.8342440888435451</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8459097797518288</v>
+        <v>0.8456305087065868</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9029526635790078</v>
+        <v>0.9053302315420974</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8901458444662874</v>
+        <v>0.8895492467448683</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8894951734029896</v>
+        <v>0.8893333628490434</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.8534072221580519</v>
+        <v>0.8534072221580518</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.8543237660079956</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.8538098269486738</v>
+        <v>0.8538098269486737</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8355634403682625</v>
+        <v>0.8312249950915455</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8390089791455052</v>
+        <v>0.8370719079897947</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8408388002028917</v>
+        <v>0.8404760962591443</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8732497896453784</v>
+        <v>0.8713854235347742</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8706481504282749</v>
+        <v>0.8708875278386988</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8653235033909144</v>
+        <v>0.8658716525872107</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>287293</v>
+        <v>285810</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>220236</v>
+        <v>219918</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>514789</v>
+        <v>514997</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>319689</v>
+        <v>319725</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>242672</v>
+        <v>242356</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>555078</v>
+        <v>554041</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>493012</v>
+        <v>496782</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>361292</v>
+        <v>362079</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>868882</v>
+        <v>868419</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>540122</v>
+        <v>539092</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>388127</v>
+        <v>388204</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>920589</v>
+        <v>920736</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>339499</v>
+        <v>340017</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>271367</v>
+        <v>271586</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>619623</v>
+        <v>620821</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>371540</v>
+        <v>371415</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>294623</v>
+        <v>296559</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>659736</v>
+        <v>661851</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>425736</v>
+        <v>425930</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>369357</v>
+        <v>370091</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>807026</v>
+        <v>806759</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>460875</v>
+        <v>462089</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>394890</v>
+        <v>394625</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>848608</v>
+        <v>848453</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1593073</v>
+        <v>1584801</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1253113</v>
+        <v>1250220</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2858976</v>
+        <v>2857743</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1664925</v>
+        <v>1661370</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1300368</v>
+        <v>1300725</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2942228</v>
+        <v>2944092</v>
       </c>
     </row>
     <row r="24">
